--- a/REGULAR/CTO/MOLOD, EMMA.xlsx
+++ b/REGULAR/CTO/MOLOD, EMMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="290">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1790,7 +1790,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1897,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1957,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2023,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2086,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2184,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2243,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2308,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2351,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2426,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2612,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2678,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2736,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2802,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2858,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2933,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3042,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3098,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3196,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3259,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3708,7 +3708,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A391" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E398" sqref="E398"/>
+      <selection pane="bottomLeft" activeCell="F399" sqref="F399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,7 +3869,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>204.36400000000012</v>
+        <v>204.26200000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -12495,11 +12495,15 @@
       <c r="A396" s="40">
         <v>44682</v>
       </c>
-      <c r="B396" s="20"/>
+      <c r="B396" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="C396" s="13">
         <v>1.25</v>
       </c>
-      <c r="D396" s="39"/>
+      <c r="D396" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
       <c r="G396" s="13">
@@ -15832,14 +15836,14 @@
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.221</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/MOLOD, EMMA.xlsx
+++ b/REGULAR/CTO/MOLOD, EMMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>UT(0-1-46)</t>
+  </si>
+  <si>
+    <t>UT(0-0-40)</t>
   </si>
 </sst>
 </file>
@@ -3325,7 +3328,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3703,12 +3706,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K623"/>
+  <dimension ref="A2:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A391" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F399" sqref="F399"/>
+      <selection pane="bottomLeft" activeCell="E394" sqref="E394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,7 +3872,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>204.26200000000011</v>
+        <v>203.92500000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -12449,11 +12452,15 @@
       <c r="A394" s="40">
         <v>44621</v>
       </c>
-      <c r="B394" s="20"/>
+      <c r="B394" s="20" t="s">
+        <v>290</v>
+      </c>
       <c r="C394" s="13">
         <v>1.25</v>
       </c>
-      <c r="D394" s="39"/>
+      <c r="D394" s="39">
+        <v>8.3000000000000018E-2</v>
+      </c>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
       <c r="G394" s="13">
@@ -12492,23 +12499,19 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C396" s="13">
-        <v>1.25</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C396" s="13"/>
       <c r="D396" s="39">
-        <v>0.10200000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G396" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H396" s="39"/>
       <c r="I396" s="9"/>
@@ -12517,15 +12520,17 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
       </c>
-      <c r="D397" s="39"/>
+      <c r="D397" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
       <c r="G397" s="13">
@@ -12535,66 +12540,64 @@
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20" t="s">
-        <v>282</v>
-      </c>
+      <c r="K397" s="49"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="40"/>
+      <c r="A398" s="40">
+        <v>44713</v>
+      </c>
       <c r="B398" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C398" s="13"/>
-      <c r="D398" s="39">
-        <v>0.221</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
+      <c r="K398" s="20" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C399" s="13">
-        <v>1.25</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C399" s="13"/>
       <c r="D399" s="39">
-        <v>0.18700000000000003</v>
+        <v>0.221</v>
       </c>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G399" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="49"/>
+      <c r="K399" s="20"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
       </c>
       <c r="D400" s="39">
-        <v>5.8000000000000017E-2</v>
+        <v>0.18700000000000003</v>
       </c>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
@@ -12609,16 +12612,16 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C401" s="13">
         <v>1.25</v>
       </c>
       <c r="D401" s="39">
-        <v>1</v>
+        <v>5.8000000000000017E-2</v>
       </c>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
@@ -12629,66 +12632,66 @@
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="49">
-        <v>44806</v>
-      </c>
+      <c r="K401" s="49"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40"/>
+      <c r="A402" s="40">
+        <v>44805</v>
+      </c>
       <c r="B402" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C402" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="C402" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D402" s="39">
-        <v>8.1000000000000016E-2</v>
+        <v>1</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G402" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="49"/>
+      <c r="K402" s="49">
+        <v>44806</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C403" s="13">
-        <v>1.25</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C403" s="13"/>
       <c r="D403" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G403" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
+      <c r="K403" s="49"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C404" s="13">
         <v>1.25</v>
       </c>
       <c r="D404" s="39">
-        <v>0.04</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
@@ -12703,15 +12706,17 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
       </c>
-      <c r="D405" s="39"/>
+      <c r="D405" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
       <c r="G405" s="13">
@@ -12721,40 +12726,40 @@
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="49" t="s">
-        <v>284</v>
-      </c>
+      <c r="K405" s="20"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40"/>
+      <c r="A406" s="40">
+        <v>44896</v>
+      </c>
       <c r="B406" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C406" s="13"/>
-      <c r="D406" s="39">
-        <v>4</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
       <c r="K406" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39">
-        <v>0.12300000000000001</v>
+        <v>4</v>
       </c>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
@@ -12765,15 +12770,19 @@
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="49"/>
+      <c r="K407" s="49" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B408" s="20"/>
+      <c r="A408" s="40"/>
+      <c r="B408" s="20" t="s">
+        <v>287</v>
+      </c>
       <c r="C408" s="13"/>
-      <c r="D408" s="39"/>
+      <c r="D408" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
       <c r="G408" s="13" t="str">
@@ -12786,19 +12795,17 @@
       <c r="K408" s="49"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40">
-        <v>44927</v>
+      <c r="A409" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="B409" s="20"/>
-      <c r="C409" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C409" s="13"/>
       <c r="D409" s="39"/>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H409" s="39"/>
       <c r="I409" s="9"/>
@@ -12807,7 +12814,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13">
@@ -12823,37 +12830,39 @@
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
+      <c r="K410" s="49"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B411" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C411" s="13"/>
-      <c r="D411" s="39">
-        <v>5</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D411" s="39"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H411" s="39"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="20" t="s">
-        <v>285</v>
-      </c>
+      <c r="K411" s="20"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40"/>
-      <c r="B412" s="20"/>
+      <c r="A412" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="C412" s="13"/>
-      <c r="D412" s="39"/>
+      <c r="D412" s="39">
+        <v>5</v>
+      </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
       <c r="G412" s="13" t="str">
@@ -12863,7 +12872,9 @@
       <c r="H412" s="39"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="49"/>
+      <c r="K412" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
@@ -12895,10 +12906,10 @@
       <c r="H414" s="39"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
+      <c r="K414" s="49"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="48"/>
+      <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -12914,7 +12925,7 @@
       <c r="K415" s="20"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40"/>
+      <c r="A416" s="48"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
@@ -12991,7 +13002,7 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="49"/>
+      <c r="K420" s="20"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
@@ -13007,7 +13018,7 @@
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="49"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
@@ -13055,7 +13066,7 @@
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="49"/>
+      <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
@@ -13071,7 +13082,7 @@
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
+      <c r="K425" s="49"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
@@ -13087,7 +13098,7 @@
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="49"/>
+      <c r="K426" s="20"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
@@ -13103,7 +13114,7 @@
       <c r="H427" s="39"/>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="20"/>
+      <c r="K427" s="49"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
@@ -13119,7 +13130,7 @@
       <c r="H428" s="39"/>
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="49"/>
+      <c r="K428" s="20"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
@@ -13151,7 +13162,7 @@
       <c r="H430" s="39"/>
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="20"/>
+      <c r="K430" s="49"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
@@ -13183,7 +13194,7 @@
       <c r="H432" s="39"/>
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
-      <c r="K432" s="49"/>
+      <c r="K432" s="20"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
@@ -13215,7 +13226,7 @@
       <c r="H434" s="39"/>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
+      <c r="K434" s="49"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
@@ -13231,7 +13242,7 @@
       <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="49"/>
+      <c r="K435" s="20"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
@@ -13247,7 +13258,7 @@
       <c r="H436" s="39"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
-      <c r="K436" s="20"/>
+      <c r="K436" s="49"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
@@ -13279,7 +13290,7 @@
       <c r="H438" s="39"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="49"/>
+      <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
@@ -13298,7 +13309,7 @@
       <c r="K439" s="49"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="48"/>
+      <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
       <c r="D440" s="39"/>
@@ -13311,20 +13322,23 @@
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="20"/>
+      <c r="K440" s="49"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="40"/>
+      <c r="A441" s="48"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
       <c r="D441" s="39"/>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="13"/>
+      <c r="G441" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H441" s="39"/>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="49"/>
+      <c r="K441" s="20"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
@@ -13337,7 +13351,7 @@
       <c r="H442" s="39"/>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
-      <c r="K442" s="20"/>
+      <c r="K442" s="49"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
@@ -13350,7 +13364,7 @@
       <c r="H443" s="39"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="49"/>
+      <c r="K443" s="20"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
@@ -13363,7 +13377,7 @@
       <c r="H444" s="39"/>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
-      <c r="K444" s="20"/>
+      <c r="K444" s="49"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
@@ -13389,7 +13403,7 @@
       <c r="H446" s="39"/>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="49"/>
+      <c r="K446" s="20"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
@@ -13415,7 +13429,7 @@
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="20"/>
+      <c r="K448" s="49"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
@@ -13467,7 +13481,7 @@
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
-      <c r="K452" s="49"/>
+      <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
@@ -13493,7 +13507,7 @@
       <c r="H454" s="39"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="K454" s="49"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
@@ -13545,7 +13559,7 @@
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="49"/>
+      <c r="K458" s="20"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
@@ -13558,7 +13572,7 @@
       <c r="H459" s="39"/>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
+      <c r="K459" s="49"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
@@ -13623,7 +13637,7 @@
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="49"/>
+      <c r="K464" s="20"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
@@ -13636,7 +13650,7 @@
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="20"/>
+      <c r="K465" s="49"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
@@ -13675,7 +13689,7 @@
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
-      <c r="K468" s="49"/>
+      <c r="K468" s="20"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
@@ -13688,7 +13702,7 @@
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
+      <c r="K469" s="49"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
@@ -13704,7 +13718,7 @@
       <c r="K470" s="20"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="48"/>
+      <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
       <c r="D471" s="39"/>
@@ -13717,7 +13731,7 @@
       <c r="K471" s="20"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="40"/>
+      <c r="A472" s="48"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
       <c r="D472" s="39"/>
@@ -13727,7 +13741,7 @@
       <c r="H472" s="39"/>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="49"/>
+      <c r="K472" s="20"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
@@ -13740,7 +13754,7 @@
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
+      <c r="K473" s="49"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
@@ -13753,7 +13767,7 @@
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="49"/>
+      <c r="K474" s="20"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
@@ -13779,7 +13793,7 @@
       <c r="H476" s="39"/>
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
-      <c r="K476" s="20"/>
+      <c r="K476" s="49"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
@@ -13792,7 +13806,7 @@
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="49"/>
+      <c r="K477" s="20"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
@@ -13805,7 +13819,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
+      <c r="K478" s="49"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
@@ -13951,7 +13965,7 @@
       <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="48"/>
+      <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -13964,7 +13978,7 @@
       <c r="K490" s="20"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="40"/>
+      <c r="A491" s="48"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
@@ -14120,7 +14134,7 @@
       <c r="K502" s="20"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="48"/>
+      <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
@@ -14133,7 +14147,7 @@
       <c r="K503" s="20"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="40"/>
+      <c r="A504" s="48"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
@@ -14289,7 +14303,7 @@
       <c r="K515" s="20"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="48"/>
+      <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
@@ -14302,7 +14316,7 @@
       <c r="K516" s="20"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="40"/>
+      <c r="A517" s="48"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
       <c r="D517" s="39"/>
@@ -14458,7 +14472,7 @@
       <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="48"/>
+      <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
@@ -14471,7 +14485,7 @@
       <c r="K529" s="20"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40"/>
+      <c r="A530" s="48"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
       <c r="D530" s="39"/>
@@ -14627,7 +14641,7 @@
       <c r="K541" s="20"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="48"/>
+      <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
       <c r="D542" s="39"/>
@@ -14640,7 +14654,7 @@
       <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40"/>
+      <c r="A543" s="48"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
@@ -14796,7 +14810,7 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="48"/>
+      <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -14809,7 +14823,7 @@
       <c r="K555" s="20"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+      <c r="A556" s="48"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -15569,10 +15583,7 @@
       <c r="D614" s="39"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G614" s="13"/>
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
@@ -15707,20 +15718,36 @@
       <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="41"/>
-      <c r="B623" s="15"/>
-      <c r="C623" s="42"/>
-      <c r="D623" s="43"/>
-      <c r="E623" s="51"/>
-      <c r="F623" s="15"/>
-      <c r="G623" s="42" t="str">
+      <c r="A623" s="40"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H623" s="43"/>
-      <c r="I623" s="51"/>
-      <c r="J623" s="12"/>
-      <c r="K623" s="15"/>
+      <c r="H623" s="39"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="41"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="42"/>
+      <c r="D624" s="43"/>
+      <c r="E624" s="51"/>
+      <c r="F624" s="15"/>
+      <c r="G624" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="43"/>
+      <c r="I624" s="51"/>
+      <c r="J624" s="12"/>
+      <c r="K624" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15839,11 +15866,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.10200000000000001</v>
+        <v>8.3000000000000018E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/MOLOD, EMMA.xlsx
+++ b/REGULAR/CTO/MOLOD, EMMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E218B2A-3E43-4008-AC1C-B9CD847D1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="293">
   <si>
     <t>PERIOD</t>
   </si>
@@ -911,12 +910,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-58)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1797,7 +1799,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1842,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1906,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1966,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2032,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2095,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2193,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2252,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2317,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2360,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2435,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2621,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2687,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2745,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2811,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2867,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2942,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2985,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,7 +3051,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3107,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3205,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3268,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3317,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3332,25 +3334,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K628" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3362,13 +3364,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3377,14 +3379,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3688,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3698,7 +3700,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3706,34 +3708,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K625"/>
+  <dimension ref="A2:K628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A410" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A410" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D401" sqref="D401"/>
+      <selection pane="bottomLeft" activeCell="E424" sqref="E424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3754,7 +3756,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3772,7 +3774,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3796,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3802,7 +3804,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3815,7 +3817,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3832,7 +3834,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3876,7 +3878,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>215.17500000000013</v>
+        <v>215.88000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3886,12 +3888,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>450.79700000000003</v>
+        <v>452.04700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3906,7 +3908,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36373</v>
       </c>
@@ -3930,7 +3932,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36404</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36434</v>
       </c>
@@ -3980,7 +3982,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36465</v>
       </c>
@@ -4000,7 +4002,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36495</v>
       </c>
@@ -4024,7 +4026,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>44</v>
       </c>
@@ -4042,7 +4044,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36526</v>
       </c>
@@ -4062,7 +4064,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36557</v>
       </c>
@@ -4086,7 +4088,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36586</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36617</v>
       </c>
@@ -4136,7 +4138,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36647</v>
       </c>
@@ -4160,7 +4162,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36678</v>
       </c>
@@ -4184,7 +4186,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36708</v>
       </c>
@@ -4208,7 +4210,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36739</v>
       </c>
@@ -4228,7 +4230,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36770</v>
       </c>
@@ -4252,7 +4254,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36800</v>
       </c>
@@ -4276,7 +4278,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>36838</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="53" t="s">
         <v>81</v>
@@ -4322,7 +4324,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -4346,7 +4348,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="54" t="s">
         <v>83</v>
@@ -4366,7 +4368,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>45</v>
       </c>
@@ -4384,7 +4386,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36892</v>
       </c>
@@ -4408,7 +4410,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36923</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36951</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>36979</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>85</v>
@@ -4478,7 +4480,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36982</v>
       </c>
@@ -4498,7 +4500,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37012</v>
       </c>
@@ -4522,7 +4524,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37043</v>
       </c>
@@ -4548,7 +4550,7 @@
         <v>37076</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37073</v>
       </c>
@@ -4572,7 +4574,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37104</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -4620,7 +4622,7 @@
         <v>37118</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>88</v>
@@ -4640,7 +4642,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37135</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>89</v>
@@ -4686,7 +4688,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37165</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37196</v>
       </c>
@@ -4730,7 +4732,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>90</v>
@@ -4750,7 +4752,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37226</v>
       </c>
@@ -4774,7 +4776,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>83</v>
@@ -4794,7 +4796,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>46</v>
       </c>
@@ -4812,7 +4814,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37257</v>
       </c>
@@ -4836,7 +4838,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37288</v>
       </c>
@@ -4860,7 +4862,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37316</v>
       </c>
@@ -4884,7 +4886,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37347</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>37364</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>95</v>
@@ -4930,7 +4932,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37377</v>
       </c>
@@ -4954,7 +4956,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37408</v>
       </c>
@@ -4974,7 +4976,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37438</v>
       </c>
@@ -4994,7 +4996,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37469</v>
       </c>
@@ -5020,7 +5022,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37500</v>
       </c>
@@ -5040,7 +5042,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37530</v>
       </c>
@@ -5066,7 +5068,7 @@
         <v>37533</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37561</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>37589</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>73</v>
@@ -5114,7 +5116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>98</v>
@@ -5134,7 +5136,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="49"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37591</v>
       </c>
@@ -5158,7 +5160,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>47</v>
       </c>
@@ -5176,7 +5178,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37622</v>
       </c>
@@ -5200,7 +5202,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37653</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>100</v>
@@ -5248,7 +5250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>73</v>
@@ -5270,7 +5272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>101</v>
@@ -5290,7 +5292,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>104</v>
@@ -5310,7 +5312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>104</v>
@@ -5330,7 +5332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37681</v>
       </c>
@@ -5354,7 +5356,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37712</v>
       </c>
@@ -5378,7 +5380,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37742</v>
       </c>
@@ -5402,7 +5404,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37773</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37803</v>
       </c>
@@ -5448,7 +5450,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="49"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37834</v>
       </c>
@@ -5468,7 +5470,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37865</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37895</v>
       </c>
@@ -5518,7 +5520,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37926</v>
       </c>
@@ -5542,7 +5544,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37956</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>48</v>
       </c>
@@ -5586,7 +5588,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37987</v>
       </c>
@@ -5610,7 +5612,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="49"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>104</v>
@@ -5630,7 +5632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38018</v>
       </c>
@@ -5654,7 +5656,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>104</v>
@@ -5674,7 +5676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38047</v>
       </c>
@@ -5698,7 +5700,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38078</v>
       </c>
@@ -5722,7 +5724,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38108</v>
       </c>
@@ -5746,7 +5748,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38139</v>
       </c>
@@ -5770,7 +5772,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38169</v>
       </c>
@@ -5794,7 +5796,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38200</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>124</v>
@@ -5838,7 +5840,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38231</v>
       </c>
@@ -5862,7 +5864,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38261</v>
       </c>
@@ -5886,7 +5888,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38292</v>
       </c>
@@ -5910,7 +5912,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38322</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>129</v>
@@ -5956,7 +5958,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>49</v>
       </c>
@@ -5974,7 +5976,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38353</v>
       </c>
@@ -5998,7 +6000,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="49"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38384</v>
       </c>
@@ -6022,7 +6024,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="49"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38412</v>
       </c>
@@ -6046,7 +6048,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="49"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38443</v>
       </c>
@@ -6066,7 +6068,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38473</v>
       </c>
@@ -6086,7 +6088,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38504</v>
       </c>
@@ -6106,7 +6108,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="49"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38534</v>
       </c>
@@ -6126,7 +6128,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38565</v>
       </c>
@@ -6146,7 +6148,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38596</v>
       </c>
@@ -6166,7 +6168,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38626</v>
       </c>
@@ -6186,7 +6188,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38657</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38687</v>
       </c>
@@ -6232,7 +6234,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>50</v>
       </c>
@@ -6250,7 +6252,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38718</v>
       </c>
@@ -6270,7 +6272,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="49"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38749</v>
       </c>
@@ -6294,7 +6296,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38777</v>
       </c>
@@ -6318,7 +6320,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38808</v>
       </c>
@@ -6342,7 +6344,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="49"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38838</v>
       </c>
@@ -6366,7 +6368,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38869</v>
       </c>
@@ -6390,7 +6392,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38899</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>138</v>
@@ -6436,7 +6438,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38930</v>
       </c>
@@ -6460,7 +6462,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38961</v>
       </c>
@@ -6484,7 +6486,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38991</v>
       </c>
@@ -6508,7 +6510,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39022</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>104</v>
@@ -6554,7 +6556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>104</v>
@@ -6574,7 +6576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>145</v>
@@ -6594,7 +6596,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39052</v>
       </c>
@@ -6618,7 +6620,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>149</v>
@@ -6638,7 +6640,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>51</v>
       </c>
@@ -6656,7 +6658,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39083</v>
       </c>
@@ -6680,7 +6682,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="49"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39114</v>
       </c>
@@ -6704,7 +6706,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39142</v>
       </c>
@@ -6726,7 +6728,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>152</v>
@@ -6746,7 +6748,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39173</v>
       </c>
@@ -6770,7 +6772,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39203</v>
       </c>
@@ -6794,7 +6796,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39234</v>
       </c>
@@ -6814,7 +6816,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="49"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39264</v>
       </c>
@@ -6838,7 +6840,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="49"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39295</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>124</v>
@@ -6882,7 +6884,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39326</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39356</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>159</v>
@@ -6952,7 +6954,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="49"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39387</v>
       </c>
@@ -6976,7 +6978,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39417</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>111</v>
@@ -7024,7 +7026,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>83</v>
@@ -7044,7 +7046,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>161</v>
@@ -7064,7 +7066,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="49"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>52</v>
       </c>
@@ -7082,7 +7084,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39448</v>
       </c>
@@ -7106,7 +7108,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="49"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39479</v>
       </c>
@@ -7130,7 +7132,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39508</v>
       </c>
@@ -7154,7 +7156,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39539</v>
       </c>
@@ -7178,7 +7180,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39569</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39600</v>
       </c>
@@ -7222,7 +7224,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39630</v>
       </c>
@@ -7246,7 +7248,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39661</v>
       </c>
@@ -7272,7 +7274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>104</v>
@@ -7292,7 +7294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>171</v>
@@ -7312,7 +7314,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39692</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>39708</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>158</v>
@@ -7360,7 +7362,7 @@
         <v>39717</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39722</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39753</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>83</v>
@@ -7430,7 +7432,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39783</v>
       </c>
@@ -7450,7 +7452,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
         <v>53</v>
       </c>
@@ -7468,7 +7470,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39814</v>
       </c>
@@ -7492,7 +7494,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39845</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>179</v>
@@ -7536,7 +7538,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39873</v>
       </c>
@@ -7560,7 +7562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>176</v>
@@ -7580,7 +7582,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39904</v>
       </c>
@@ -7604,7 +7606,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39934</v>
       </c>
@@ -7628,7 +7630,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>182</v>
@@ -7648,7 +7650,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39965</v>
       </c>
@@ -7672,7 +7674,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39995</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>89</v>
@@ -7716,7 +7718,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40026</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>40058</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>185</v>
@@ -7762,7 +7764,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40057</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>186</v>
@@ -7808,7 +7810,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40087</v>
       </c>
@@ -7832,7 +7834,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="49"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40118</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>167</v>
@@ -7878,7 +7880,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40148</v>
       </c>
@@ -7902,7 +7904,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>54</v>
       </c>
@@ -7920,7 +7922,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40179</v>
       </c>
@@ -7944,7 +7946,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40210</v>
       </c>
@@ -7968,7 +7970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>192</v>
@@ -7988,7 +7990,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="49"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40238</v>
       </c>
@@ -8012,7 +8014,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40269</v>
       </c>
@@ -8036,7 +8038,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>111</v>
@@ -8058,7 +8060,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>194</v>
@@ -8078,7 +8080,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40299</v>
       </c>
@@ -8102,7 +8104,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="49"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40330</v>
       </c>
@@ -8126,7 +8128,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="49"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40360</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>198</v>
@@ -8170,7 +8172,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="49"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40391</v>
       </c>
@@ -8194,7 +8196,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="49"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40422</v>
       </c>
@@ -8218,7 +8220,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="49"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40452</v>
       </c>
@@ -8244,7 +8246,7 @@
         <v>40473</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>202</v>
@@ -8264,7 +8266,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40483</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>40491</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>203</v>
@@ -8310,7 +8312,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40513</v>
       </c>
@@ -8336,7 +8338,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>204</v>
@@ -8356,7 +8358,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="48" t="s">
         <v>55</v>
       </c>
@@ -8374,7 +8376,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40544</v>
       </c>
@@ -8398,7 +8400,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40575</v>
       </c>
@@ -8422,7 +8424,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>206</v>
@@ -8442,7 +8444,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>68</v>
@@ -8462,7 +8464,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40603</v>
       </c>
@@ -8488,7 +8490,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>209</v>
@@ -8508,7 +8510,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40634</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>40664</v>
       </c>
@@ -8558,7 +8560,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40695</v>
       </c>
@@ -8582,7 +8584,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>40725</v>
       </c>
@@ -8606,7 +8608,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40756</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>40788</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>211</v>
@@ -8652,7 +8654,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="49"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40787</v>
       </c>
@@ -8676,7 +8678,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>40817</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>213</v>
@@ -8722,7 +8724,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="49"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>40848</v>
       </c>
@@ -8748,7 +8750,7 @@
         <v>40865</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>214</v>
@@ -8768,7 +8770,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="49"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40878</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>40896</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>215</v>
@@ -8814,7 +8816,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="49"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="48" t="s">
         <v>56</v>
       </c>
@@ -8832,7 +8834,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40909</v>
       </c>
@@ -8856,7 +8858,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40940</v>
       </c>
@@ -8880,7 +8882,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40969</v>
       </c>
@@ -8904,7 +8906,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41000</v>
       </c>
@@ -8928,7 +8930,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>219</v>
@@ -8948,7 +8950,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="49"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41030</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>221</v>
@@ -8994,7 +8996,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41061</v>
       </c>
@@ -9020,7 +9022,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>223</v>
@@ -9040,7 +9042,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41091</v>
       </c>
@@ -9064,7 +9066,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41122</v>
       </c>
@@ -9088,7 +9090,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41153</v>
       </c>
@@ -9114,7 +9116,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>185</v>
@@ -9134,7 +9136,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41183</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>226</v>
@@ -9180,7 +9182,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41214</v>
       </c>
@@ -9204,7 +9206,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41244</v>
       </c>
@@ -9230,7 +9232,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>227</v>
@@ -9250,7 +9252,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="49"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="48" t="s">
         <v>57</v>
       </c>
@@ -9268,7 +9270,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41275</v>
       </c>
@@ -9292,7 +9294,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41306</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>158</v>
@@ -9338,7 +9340,7 @@
         <v>41332</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>209</v>
@@ -9358,7 +9360,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="49"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41334</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>167</v>
@@ -9402,7 +9404,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="49"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41365</v>
       </c>
@@ -9426,7 +9428,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41395</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>158</v>
@@ -9472,7 +9474,7 @@
         <v>41422</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>98</v>
@@ -9492,7 +9494,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41426</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>41436</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>79</v>
@@ -9538,7 +9540,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>41456</v>
       </c>
@@ -9562,7 +9564,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>41487</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>41513</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>81</v>
@@ -9608,7 +9610,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="49"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41518</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>68</v>
@@ -9654,7 +9656,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="49"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>41548</v>
       </c>
@@ -9680,7 +9682,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>120</v>
@@ -9700,7 +9702,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="49"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>41579</v>
       </c>
@@ -9726,7 +9728,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>200</v>
@@ -9746,7 +9748,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="49"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>41609</v>
       </c>
@@ -9770,7 +9772,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="48" t="s">
         <v>58</v>
       </c>
@@ -9788,7 +9790,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="49"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>41640</v>
       </c>
@@ -9812,7 +9814,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>41671</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>98</v>
@@ -9858,7 +9860,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="49"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>41699</v>
       </c>
@@ -9882,7 +9884,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>41730</v>
       </c>
@@ -9906,7 +9908,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="49"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>41760</v>
       </c>
@@ -9930,7 +9932,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>41791</v>
       </c>
@@ -9954,7 +9956,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="49"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>41821</v>
       </c>
@@ -9978,7 +9980,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>41852</v>
       </c>
@@ -10002,7 +10004,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="15" t="s">
         <v>104</v>
@@ -10022,7 +10024,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="15" t="s">
         <v>240</v>
@@ -10042,7 +10044,7 @@
       <c r="J281" s="12"/>
       <c r="K281" s="50"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>41883</v>
       </c>
@@ -10066,7 +10068,7 @@
       <c r="J282" s="12"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41913</v>
       </c>
@@ -10092,7 +10094,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>243</v>
@@ -10112,7 +10114,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>41944</v>
       </c>
@@ -10136,7 +10138,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>41974</v>
       </c>
@@ -10162,7 +10164,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>104</v>
@@ -10182,7 +10184,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>183</v>
@@ -10202,7 +10204,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="48" t="s">
         <v>59</v>
       </c>
@@ -10220,7 +10222,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42005</v>
       </c>
@@ -10246,7 +10248,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>148</v>
@@ -10268,7 +10270,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>248</v>
@@ -10288,7 +10290,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42036</v>
       </c>
@@ -10312,7 +10314,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>241</v>
@@ -10332,7 +10334,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>42064</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>251</v>
@@ -10376,7 +10378,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42095</v>
       </c>
@@ -10400,7 +10402,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>42125</v>
       </c>
@@ -10424,7 +10426,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42156</v>
       </c>
@@ -10444,7 +10446,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42186</v>
       </c>
@@ -10468,7 +10470,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42217</v>
       </c>
@@ -10488,7 +10490,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42248</v>
       </c>
@@ -10508,7 +10510,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42278</v>
       </c>
@@ -10528,7 +10530,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="49"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>42309</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42339</v>
       </c>
@@ -10580,7 +10582,7 @@
         <v>42360</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>60</v>
       </c>
@@ -10598,7 +10600,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42370</v>
       </c>
@@ -10618,7 +10620,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42401</v>
       </c>
@@ -10642,7 +10644,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42430</v>
       </c>
@@ -10662,7 +10664,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="49"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42461</v>
       </c>
@@ -10686,7 +10688,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>80</v>
@@ -10708,7 +10710,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42491</v>
       </c>
@@ -10728,7 +10730,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42522</v>
       </c>
@@ -10748,7 +10750,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42552</v>
       </c>
@@ -10768,7 +10770,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="49"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>42583</v>
       </c>
@@ -10788,7 +10790,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>42614</v>
       </c>
@@ -10812,7 +10814,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>158</v>
@@ -10834,7 +10836,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>42644</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>42675</v>
       </c>
@@ -10880,7 +10882,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>42705</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
         <v>61</v>
       </c>
@@ -10924,7 +10926,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>42736</v>
       </c>
@@ -10944,7 +10946,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>42767</v>
       </c>
@@ -10964,7 +10966,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>42795</v>
       </c>
@@ -10988,7 +10990,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>42826</v>
       </c>
@@ -11012,7 +11014,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>42856</v>
       </c>
@@ -11032,7 +11034,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>42887</v>
       </c>
@@ -11052,7 +11054,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>42917</v>
       </c>
@@ -11072,7 +11074,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>42948</v>
       </c>
@@ -11092,7 +11094,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>42979</v>
       </c>
@@ -11112,7 +11114,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43009</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43040</v>
       </c>
@@ -11156,7 +11158,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43070</v>
       </c>
@@ -11182,7 +11184,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>73</v>
@@ -11204,7 +11206,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>158</v>
@@ -11224,7 +11226,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>62</v>
       </c>
@@ -11242,7 +11244,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43101</v>
       </c>
@@ -11262,7 +11264,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43132</v>
       </c>
@@ -11282,7 +11284,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43160</v>
       </c>
@@ -11302,7 +11304,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43191</v>
       </c>
@@ -11322,7 +11324,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43221</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43252</v>
       </c>
@@ -11370,7 +11372,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43282</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43313</v>
       </c>
@@ -11414,7 +11416,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43344</v>
       </c>
@@ -11434,7 +11436,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43374</v>
       </c>
@@ -11460,7 +11462,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43405</v>
       </c>
@@ -11480,7 +11482,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="49"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43435</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>63</v>
       </c>
@@ -11524,7 +11526,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43466</v>
       </c>
@@ -11548,7 +11550,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43497</v>
       </c>
@@ -11568,7 +11570,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43525</v>
       </c>
@@ -11592,7 +11594,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43556</v>
       </c>
@@ -11612,7 +11614,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="49"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43586</v>
       </c>
@@ -11632,7 +11634,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43617</v>
       </c>
@@ -11652,7 +11654,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="49"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43647</v>
       </c>
@@ -11672,7 +11674,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43678</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43709</v>
       </c>
@@ -11718,7 +11720,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="49"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43739</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43770</v>
       </c>
@@ -11762,7 +11764,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>43800</v>
       </c>
@@ -11788,7 +11790,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>83</v>
@@ -11808,7 +11810,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
         <v>64</v>
       </c>
@@ -11826,7 +11828,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>43831</v>
       </c>
@@ -11850,7 +11852,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43862</v>
       </c>
@@ -11870,7 +11872,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>43891</v>
       </c>
@@ -11890,7 +11892,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43922</v>
       </c>
@@ -11910,7 +11912,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>43952</v>
       </c>
@@ -11930,7 +11932,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="49"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43983</v>
       </c>
@@ -11950,7 +11952,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="49"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44013</v>
       </c>
@@ -11974,7 +11976,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>104</v>
@@ -11994,7 +11996,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44044</v>
       </c>
@@ -12014,7 +12016,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44075</v>
       </c>
@@ -12034,7 +12036,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44105</v>
       </c>
@@ -12054,7 +12056,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44136</v>
       </c>
@@ -12074,7 +12076,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="49"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44166</v>
       </c>
@@ -12100,7 +12102,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>65</v>
       </c>
@@ -12118,7 +12120,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44197</v>
       </c>
@@ -12142,7 +12144,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44228</v>
       </c>
@@ -12162,7 +12164,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="49"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44256</v>
       </c>
@@ -12182,7 +12184,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44287</v>
       </c>
@@ -12202,7 +12204,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44317</v>
       </c>
@@ -12222,7 +12224,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="49"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44348</v>
       </c>
@@ -12242,7 +12244,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="49"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44378</v>
       </c>
@@ -12268,7 +12270,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>104</v>
@@ -12288,7 +12290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44409</v>
       </c>
@@ -12308,7 +12310,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="49"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44440</v>
       </c>
@@ -12328,7 +12330,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44470</v>
       </c>
@@ -12348,7 +12350,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44501</v>
       </c>
@@ -12368,7 +12370,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="49"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44531</v>
       </c>
@@ -12394,7 +12396,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>66</v>
       </c>
@@ -12412,7 +12414,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44562</v>
       </c>
@@ -12432,7 +12434,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44593</v>
       </c>
@@ -12452,7 +12454,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44621</v>
       </c>
@@ -12476,7 +12478,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="49"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44652</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>130</v>
@@ -12522,7 +12524,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="49"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44682</v>
       </c>
@@ -12546,7 +12548,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="49"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>44713</v>
       </c>
@@ -12570,7 +12572,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>289</v>
@@ -12590,7 +12592,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>44743</v>
       </c>
@@ -12614,7 +12616,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="49"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44774</v>
       </c>
@@ -12638,7 +12640,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="49"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>44805</v>
       </c>
@@ -12664,7 +12666,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>82</v>
@@ -12684,7 +12686,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="49"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44835</v>
       </c>
@@ -12708,7 +12710,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>44866</v>
       </c>
@@ -12732,7 +12734,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>44896</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>100</v>
@@ -12778,7 +12780,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>287</v>
@@ -12798,7 +12800,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="49"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="48" t="s">
         <v>67</v>
       </c>
@@ -12816,7 +12818,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="49"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>44927</v>
       </c>
@@ -12836,7 +12838,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="49"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>44958</v>
       </c>
@@ -12856,7 +12858,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44986</v>
       </c>
@@ -12882,7 +12884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45017</v>
       </c>
@@ -12902,7 +12904,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="49"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45047</v>
       </c>
@@ -12922,7 +12924,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="49"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45078</v>
       </c>
@@ -12942,15 +12944,19 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45108</v>
       </c>
-      <c r="B416" s="20"/>
+      <c r="B416" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="C416" s="13">
         <v>1.25</v>
       </c>
-      <c r="D416" s="39"/>
+      <c r="D416" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
       <c r="G416" s="13">
@@ -12962,15 +12968,19 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45139</v>
       </c>
-      <c r="B417" s="20"/>
+      <c r="B417" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C417" s="13">
         <v>1.25</v>
       </c>
-      <c r="D417" s="39"/>
+      <c r="D417" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
       <c r="G417" s="13">
@@ -12982,15 +12992,19 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45170</v>
       </c>
-      <c r="B418" s="20"/>
+      <c r="B418" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C418" s="13">
         <v>1.25</v>
       </c>
-      <c r="D418" s="39"/>
+      <c r="D418" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
       <c r="G418" s="13">
@@ -13002,7 +13016,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45200</v>
       </c>
@@ -13026,59 +13040,59 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420" s="40">
-        <v>45231</v>
-      </c>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C420" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D420" s="39"/>
+        <v>87</v>
+      </c>
+      <c r="C420" s="13"/>
+      <c r="D420" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="49">
-        <v>45267</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K420" s="49"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B421" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C421" s="13"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D421" s="39"/>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="49">
-        <v>45280</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A422" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="B422" s="20"/>
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40"/>
+      <c r="B422" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C422" s="13"/>
-      <c r="D422" s="39"/>
+      <c r="D422" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
       <c r="G422" s="13" t="str">
@@ -13090,31 +13104,39 @@
       <c r="J422" s="11"/>
       <c r="K422" s="49"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B423" s="20"/>
-      <c r="C423" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B423" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B424" s="20"/>
+      <c r="K423" s="49">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40"/>
+      <c r="B424" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C424" s="13"/>
-      <c r="D424" s="39"/>
+      <c r="D424" s="39">
+        <v>0.371</v>
+      </c>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
       <c r="G424" s="13" t="str">
@@ -13124,11 +13146,11 @@
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="20"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="40">
-        <v>45352</v>
+      <c r="K424" s="49"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -13142,11 +13164,11 @@
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K425" s="49"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -13160,11 +13182,11 @@
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="49"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -13180,9 +13202,9 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -13196,11 +13218,11 @@
       <c r="H428" s="39"/>
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="49"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -13214,11 +13236,11 @@
       <c r="H429" s="39"/>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="20"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K429" s="49"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -13232,10 +13254,12 @@
       <c r="H430" s="39"/>
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="49"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A431" s="40"/>
+      <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="40">
+        <v>45444</v>
+      </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -13250,8 +13274,10 @@
       <c r="J431" s="11"/>
       <c r="K431" s="49"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A432" s="40"/>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="40">
+        <v>45474</v>
+      </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
       <c r="D432" s="39"/>
@@ -13266,8 +13292,10 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A433" s="40"/>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="40">
+        <v>45505</v>
+      </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
       <c r="D433" s="39"/>
@@ -13280,9 +13308,9 @@
       <c r="H433" s="39"/>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="20"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K433" s="49"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -13298,7 +13326,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="49"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -13312,9 +13340,9 @@
       <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="49"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K435" s="20"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -13330,7 +13358,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -13346,7 +13374,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="49"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13360,9 +13388,9 @@
       <c r="H438" s="39"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K438" s="49"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13378,7 +13406,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13394,7 +13422,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="49"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13408,10 +13436,10 @@
       <c r="H441" s="39"/>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="49"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A442" s="48"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
       <c r="D442" s="39"/>
@@ -13426,46 +13454,55 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
       <c r="D443" s="39"/>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="13"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H443" s="39"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
       <c r="K443" s="49"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
       <c r="D444" s="39"/>
       <c r="E444" s="9"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="13"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H444" s="39"/>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
-      <c r="K444" s="20"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A445" s="40"/>
+      <c r="K444" s="49"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="48"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
       <c r="D445" s="39"/>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="13"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H445" s="39"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="49"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13476,9 +13513,9 @@
       <c r="H446" s="39"/>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="20"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K446" s="49"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13491,7 +13528,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13504,7 +13541,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="49"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13515,9 +13552,9 @@
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
-      <c r="K449" s="49"/>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13530,7 +13567,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13541,9 +13578,9 @@
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K451" s="49"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13554,9 +13591,9 @@
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
-      <c r="K452" s="20"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K452" s="49"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13569,7 +13606,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13580,9 +13617,9 @@
       <c r="H454" s="39"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="49"/>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13593,9 +13630,9 @@
       <c r="H455" s="39"/>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="49"/>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13608,7 +13645,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13619,9 +13656,9 @@
       <c r="H457" s="39"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K457" s="49"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13632,9 +13669,9 @@
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K458" s="49"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13647,7 +13684,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13658,9 +13695,9 @@
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="49"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13673,7 +13710,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -13686,7 +13723,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -13697,9 +13734,9 @@
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K463" s="49"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -13712,7 +13749,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -13725,7 +13762,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -13736,9 +13773,9 @@
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="49"/>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -13751,7 +13788,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13764,7 +13801,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -13775,9 +13812,9 @@
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K469" s="49"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -13788,9 +13825,9 @@
       <c r="H470" s="39"/>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="49"/>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -13803,7 +13840,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -13816,8 +13853,8 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A473" s="48"/>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
       <c r="D473" s="39"/>
@@ -13827,9 +13864,9 @@
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K473" s="49"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13840,9 +13877,9 @@
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="49"/>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13855,8 +13892,8 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A476" s="40"/>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="48"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
       <c r="D476" s="39"/>
@@ -13866,9 +13903,9 @@
       <c r="H476" s="39"/>
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
-      <c r="K476" s="49"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -13881,7 +13918,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="49"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -13894,7 +13931,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -13907,7 +13944,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="49"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -13918,9 +13955,9 @@
       <c r="H480" s="39"/>
       <c r="I480" s="9"/>
       <c r="J480" s="11"/>
-      <c r="K480" s="20"/>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K480" s="49"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -13933,7 +13970,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -13944,9 +13981,9 @@
       <c r="H482" s="39"/>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
-      <c r="K482" s="20"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K482" s="49"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -13959,7 +13996,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -13972,7 +14009,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -13985,7 +14022,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -13998,7 +14035,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14011,7 +14048,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14024,7 +14061,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14037,7 +14074,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14050,7 +14087,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14063,8 +14100,8 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492" s="48"/>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -14076,7 +14113,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14089,7 +14126,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14102,8 +14139,8 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A495" s="40"/>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="48"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
@@ -14115,7 +14152,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14128,7 +14165,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14141,7 +14178,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14154,7 +14191,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14167,7 +14204,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14180,7 +14217,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14193,7 +14230,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14206,7 +14243,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14219,7 +14256,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14232,8 +14269,8 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505" s="48"/>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
       <c r="D505" s="39"/>
@@ -14245,7 +14282,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14258,7 +14295,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14271,8 +14308,8 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A508" s="40"/>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="48"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
@@ -14284,7 +14321,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14297,7 +14334,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14310,7 +14347,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14323,7 +14360,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14336,7 +14373,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14349,7 +14386,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14362,7 +14399,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14375,7 +14412,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -14388,7 +14425,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -14401,8 +14438,8 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="48"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
       <c r="D518" s="39"/>
@@ -14414,7 +14451,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -14427,7 +14464,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -14440,8 +14477,8 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521" s="40"/>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="48"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
@@ -14453,7 +14490,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -14466,7 +14503,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -14479,7 +14516,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14492,7 +14529,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14505,7 +14542,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14518,7 +14555,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14531,7 +14568,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14544,7 +14581,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14557,7 +14594,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14570,8 +14607,8 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A531" s="48"/>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
       <c r="D531" s="39"/>
@@ -14583,7 +14620,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14596,7 +14633,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14609,8 +14646,8 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A534" s="40"/>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534" s="48"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
@@ -14622,7 +14659,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14635,7 +14672,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14648,7 +14685,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14661,7 +14698,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14674,7 +14711,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14687,7 +14724,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14700,7 +14737,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14713,7 +14750,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14726,7 +14763,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14739,8 +14776,8 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A544" s="48"/>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
@@ -14752,7 +14789,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14765,7 +14802,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14778,8 +14815,8 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A547" s="40"/>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" s="48"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
@@ -14791,7 +14828,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14804,7 +14841,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14817,7 +14854,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14830,7 +14867,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14843,7 +14880,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14856,7 +14893,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14869,7 +14906,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -14882,7 +14919,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14895,7 +14932,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -14908,8 +14945,8 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A557" s="48"/>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -14921,7 +14958,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -14934,7 +14971,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -14947,8 +14984,8 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A560" s="40"/>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="48"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -14960,7 +14997,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -14973,7 +15010,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14986,7 +15023,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14999,7 +15036,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15012,7 +15049,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15025,7 +15062,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15038,7 +15075,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15051,7 +15088,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15064,7 +15101,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15077,7 +15114,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15090,7 +15127,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15103,7 +15140,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15116,7 +15153,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15129,7 +15166,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15142,7 +15179,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15155,7 +15192,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15168,7 +15205,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15181,7 +15218,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15194,7 +15231,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15207,7 +15244,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15220,7 +15257,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15233,7 +15270,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15246,7 +15283,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15259,7 +15296,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15272,7 +15309,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15285,7 +15322,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15298,7 +15335,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15311,7 +15348,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15324,7 +15361,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15337,7 +15374,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15350,7 +15387,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15363,7 +15400,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15376,7 +15413,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15389,7 +15426,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15402,7 +15439,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15415,7 +15452,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15428,7 +15465,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15441,7 +15478,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15454,7 +15491,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15467,7 +15504,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15480,7 +15517,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15493,7 +15530,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15506,7 +15543,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15519,7 +15556,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15532,7 +15569,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15545,7 +15582,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15558,7 +15595,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15571,7 +15608,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15584,7 +15621,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15597,7 +15634,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15610,7 +15647,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15623,7 +15660,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15636,7 +15673,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15649,7 +15686,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15662,7 +15699,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15675,55 +15712,46 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G616" s="13"/>
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
       <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G617" s="13"/>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
       <c r="E618" s="9"/>
       <c r="F618" s="20"/>
-      <c r="G618" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G618" s="13"/>
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15739,7 +15767,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15755,7 +15783,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15771,7 +15799,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15787,7 +15815,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15803,7 +15831,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15819,21 +15847,69 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A625" s="41"/>
-      <c r="B625" s="15"/>
-      <c r="C625" s="42"/>
-      <c r="D625" s="43"/>
-      <c r="E625" s="51"/>
-      <c r="F625" s="15"/>
-      <c r="G625" s="42" t="str">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="40"/>
+      <c r="B625" s="20"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="39"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="20"/>
+      <c r="G625" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H625" s="43"/>
-      <c r="I625" s="51"/>
-      <c r="J625" s="12"/>
-      <c r="K625" s="15"/>
+      <c r="H625" s="39"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="20"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="40"/>
+      <c r="B626" s="20"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="39"/>
+      <c r="E626" s="9"/>
+      <c r="F626" s="20"/>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="39"/>
+      <c r="I626" s="9"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="20"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="40"/>
+      <c r="B627" s="20"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="39"/>
+      <c r="E627" s="9"/>
+      <c r="F627" s="20"/>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H627" s="39"/>
+      <c r="I627" s="9"/>
+      <c r="J627" s="11"/>
+      <c r="K627" s="20"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" s="41"/>
+      <c r="B628" s="15"/>
+      <c r="C628" s="42"/>
+      <c r="D628" s="43"/>
+      <c r="E628" s="51"/>
+      <c r="F628" s="15"/>
+      <c r="G628" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H628" s="43"/>
+      <c r="I628" s="51"/>
+      <c r="J628" s="12"/>
+      <c r="K628" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15850,10 +15926,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15876,7 +15952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15884,21 +15960,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>32</v>
       </c>
@@ -15911,7 +15987,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15940,7 +16016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>36.505000000000003</v>
       </c>
@@ -15948,15 +16024,13 @@
         <v>119.297</v>
       </c>
       <c r="D3"/>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.3000000000000018E-2</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -15968,17 +16042,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15999,7 +16073,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16026,7 +16100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16052,7 +16126,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16078,7 +16152,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16104,7 +16178,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16130,7 +16204,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16156,7 +16230,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16182,7 +16256,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16208,7 +16282,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16228,7 +16302,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16248,7 +16322,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16268,7 +16342,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16289,7 +16363,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16310,7 +16384,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16331,7 +16405,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16352,7 +16426,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16373,7 +16447,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16394,7 +16468,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16415,7 +16489,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16436,7 +16510,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16457,7 +16531,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16478,7 +16552,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16499,7 +16573,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16520,7 +16594,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16541,7 +16615,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16562,7 +16636,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16583,7 +16657,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16604,7 +16678,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16625,7 +16699,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16646,7 +16720,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16667,7 +16741,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16688,7 +16762,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16697,7 +16771,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16706,7 +16780,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16715,7 +16789,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16724,7 +16798,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16733,7 +16807,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16742,7 +16816,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16751,7 +16825,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16760,7 +16834,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16769,7 +16843,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16778,7 +16852,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16787,7 +16861,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16796,7 +16870,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16805,7 +16879,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16814,7 +16888,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16823,7 +16897,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16832,7 +16906,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16841,7 +16915,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16850,7 +16924,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16859,7 +16933,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16868,7 +16942,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16877,7 +16951,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16886,7 +16960,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16895,7 +16969,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16904,7 +16978,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16913,7 +16987,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16922,7 +16996,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16931,7 +17005,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16940,7 +17014,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16949,7 +17023,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/MOLOD, EMMA.xlsx
+++ b/REGULAR/CTO/MOLOD, EMMA.xlsx
@@ -3717,7 +3717,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A410" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E424" sqref="E424"/>
+      <selection pane="bottomLeft" activeCell="J429" sqref="J429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13182,7 +13182,7 @@
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="20"/>
+      <c r="K426" s="49"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">

--- a/REGULAR/CTO/MOLOD, EMMA.xlsx
+++ b/REGULAR/CTO/MOLOD, EMMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="295">
   <si>
     <t>PERIOD</t>
   </si>
@@ -913,6 +913,12 @@
   </si>
   <si>
     <t>UT(0-2-58)</t>
+  </si>
+  <si>
+    <t>UT(0-4-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-50)</t>
   </si>
 </sst>
 </file>
@@ -3334,7 +3340,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K628" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K629" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3712,12 +3718,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K628"/>
+  <dimension ref="A2:K629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A410" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A404" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="J429" sqref="J429"/>
+      <selection pane="bottomLeft" activeCell="F418" sqref="F418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,7 +3884,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>215.88000000000011</v>
+        <v>215.04000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -12822,11 +12828,15 @@
       <c r="A410" s="40">
         <v>44927</v>
       </c>
-      <c r="B410" s="20"/>
+      <c r="B410" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="C410" s="13">
         <v>1.25</v>
       </c>
-      <c r="D410" s="39"/>
+      <c r="D410" s="39">
+        <v>0.10400000000000001</v>
+      </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
       <c r="G410" s="13">
@@ -12842,11 +12852,15 @@
       <c r="A411" s="40">
         <v>44958</v>
       </c>
-      <c r="B411" s="20"/>
+      <c r="B411" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C411" s="13">
         <v>1.25</v>
       </c>
-      <c r="D411" s="39"/>
+      <c r="D411" s="39">
+        <v>0.14800000000000002</v>
+      </c>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
       <c r="G411" s="13">
@@ -12885,34 +12899,38 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B413" s="20"/>
-      <c r="C413" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D413" s="39"/>
+      <c r="A413" s="40"/>
+      <c r="B413" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C413" s="13"/>
+      <c r="D413" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H413" s="39"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
-      <c r="K413" s="49"/>
+      <c r="K413" s="20"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B414" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C414" s="13">
         <v>1.25</v>
       </c>
-      <c r="D414" s="39"/>
+      <c r="D414" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
       <c r="G414" s="13">
@@ -12926,13 +12944,17 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B415" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C415" s="13">
         <v>1.25</v>
       </c>
-      <c r="D415" s="39"/>
+      <c r="D415" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
       <c r="G415" s="13">
@@ -12942,20 +12964,20 @@
       <c r="H415" s="39"/>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
-      <c r="K415" s="20"/>
+      <c r="K415" s="49"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="C416" s="13">
         <v>1.25</v>
       </c>
       <c r="D416" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
@@ -12970,16 +12992,16 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B417" s="20" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="C417" s="13">
         <v>1.25</v>
       </c>
       <c r="D417" s="39">
-        <v>3.1000000000000014E-2</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
@@ -12994,16 +13016,16 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C418" s="13">
         <v>1.25</v>
       </c>
       <c r="D418" s="39">
-        <v>0.01</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
@@ -13018,15 +13040,17 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
       </c>
-      <c r="D419" s="39"/>
+      <c r="D419" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
       <c r="G419" s="13">
@@ -13036,125 +13060,129 @@
       <c r="H419" s="39"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="49">
-        <v>45223</v>
-      </c>
+      <c r="K419" s="20"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
+      <c r="A420" s="40">
+        <v>45200</v>
+      </c>
       <c r="B420" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C420" s="13"/>
-      <c r="D420" s="39">
-        <v>3.5000000000000017E-2</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D420" s="39"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="49"/>
+      <c r="K420" s="49">
+        <v>45223</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C421" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D421" s="39"/>
+        <v>87</v>
+      </c>
+      <c r="C421" s="13"/>
+      <c r="D421" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="49">
-        <v>45267</v>
-      </c>
+      <c r="K421" s="49"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40"/>
+      <c r="A422" s="40">
+        <v>45231</v>
+      </c>
       <c r="B422" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C422" s="13"/>
-      <c r="D422" s="39">
-        <v>5.4000000000000013E-2</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D422" s="39"/>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="49"/>
+      <c r="K422" s="49">
+        <v>45267</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C423" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D423" s="39"/>
+        <v>93</v>
+      </c>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="49">
-        <v>45280</v>
-      </c>
+      <c r="K423" s="49"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40"/>
+      <c r="A424" s="40">
+        <v>45261</v>
+      </c>
       <c r="B424" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C424" s="13"/>
-      <c r="D424" s="39">
-        <v>0.371</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D424" s="39"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="49"/>
+      <c r="K424" s="49">
+        <v>45280</v>
+      </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="B425" s="20"/>
+      <c r="A425" s="40"/>
+      <c r="B425" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C425" s="13"/>
-      <c r="D425" s="39"/>
+      <c r="D425" s="39">
+        <v>0.371</v>
+      </c>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
       <c r="G425" s="13" t="str">
@@ -13167,8 +13195,8 @@
       <c r="K425" s="49"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40">
-        <v>45292</v>
+      <c r="A426" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -13186,7 +13214,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -13200,11 +13228,11 @@
       <c r="H427" s="39"/>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="20"/>
+      <c r="K427" s="49"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -13222,7 +13250,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -13236,11 +13264,11 @@
       <c r="H429" s="39"/>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="49"/>
+      <c r="K429" s="20"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -13254,11 +13282,11 @@
       <c r="H430" s="39"/>
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="20"/>
+      <c r="K430" s="49"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -13272,11 +13300,11 @@
       <c r="H431" s="39"/>
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
-      <c r="K431" s="49"/>
+      <c r="K431" s="20"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -13290,11 +13318,11 @@
       <c r="H432" s="39"/>
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
-      <c r="K432" s="20"/>
+      <c r="K432" s="49"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -13308,10 +13336,12 @@
       <c r="H433" s="39"/>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="49"/>
+      <c r="K433" s="20"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40"/>
+      <c r="A434" s="40">
+        <v>45505</v>
+      </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
       <c r="D434" s="39"/>
@@ -13340,7 +13370,7 @@
       <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
+      <c r="K435" s="49"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
@@ -13372,7 +13402,7 @@
       <c r="H437" s="39"/>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="49"/>
+      <c r="K437" s="20"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
@@ -13404,7 +13434,7 @@
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="20"/>
+      <c r="K439" s="49"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
@@ -13420,7 +13450,7 @@
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="49"/>
+      <c r="K440" s="20"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
@@ -13436,7 +13466,7 @@
       <c r="H441" s="39"/>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="20"/>
+      <c r="K441" s="49"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
@@ -13468,7 +13498,7 @@
       <c r="H443" s="39"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="49"/>
+      <c r="K443" s="20"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
@@ -13487,7 +13517,7 @@
       <c r="K444" s="49"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="48"/>
+      <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
       <c r="D445" s="39"/>
@@ -13500,20 +13530,23 @@
       <c r="H445" s="39"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="20"/>
+      <c r="K445" s="49"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="40"/>
+      <c r="A446" s="48"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
       <c r="D446" s="39"/>
       <c r="E446" s="9"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="13"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H446" s="39"/>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="49"/>
+      <c r="K446" s="20"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
@@ -13526,7 +13559,7 @@
       <c r="H447" s="39"/>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
-      <c r="K447" s="20"/>
+      <c r="K447" s="49"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
@@ -13539,7 +13572,7 @@
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="49"/>
+      <c r="K448" s="20"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
@@ -13552,7 +13585,7 @@
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
-      <c r="K449" s="20"/>
+      <c r="K449" s="49"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
@@ -13578,7 +13611,7 @@
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="49"/>
+      <c r="K451" s="20"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
@@ -13604,7 +13637,7 @@
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="20"/>
+      <c r="K453" s="49"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
@@ -13656,7 +13689,7 @@
       <c r="H457" s="39"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="49"/>
+      <c r="K457" s="20"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
@@ -13682,7 +13715,7 @@
       <c r="H459" s="39"/>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
+      <c r="K459" s="49"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
@@ -13734,7 +13767,7 @@
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="49"/>
+      <c r="K463" s="20"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
@@ -13747,7 +13780,7 @@
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="49"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
@@ -13812,7 +13845,7 @@
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="49"/>
+      <c r="K469" s="20"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
@@ -13825,7 +13858,7 @@
       <c r="H470" s="39"/>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="20"/>
+      <c r="K470" s="49"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
@@ -13864,7 +13897,7 @@
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="49"/>
+      <c r="K473" s="20"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
@@ -13877,7 +13910,7 @@
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
+      <c r="K474" s="49"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
@@ -13893,7 +13926,7 @@
       <c r="K475" s="20"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="48"/>
+      <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
       <c r="D476" s="39"/>
@@ -13906,7 +13939,7 @@
       <c r="K476" s="20"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="40"/>
+      <c r="A477" s="48"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
       <c r="D477" s="39"/>
@@ -13916,7 +13949,7 @@
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="49"/>
+      <c r="K477" s="20"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
@@ -13929,7 +13962,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
+      <c r="K478" s="49"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
@@ -13942,7 +13975,7 @@
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
-      <c r="K479" s="49"/>
+      <c r="K479" s="20"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
@@ -13968,7 +14001,7 @@
       <c r="H481" s="39"/>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
+      <c r="K481" s="49"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
@@ -13981,7 +14014,7 @@
       <c r="H482" s="39"/>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
-      <c r="K482" s="49"/>
+      <c r="K482" s="20"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
@@ -13994,7 +14027,7 @@
       <c r="H483" s="39"/>
       <c r="I483" s="9"/>
       <c r="J483" s="11"/>
-      <c r="K483" s="20"/>
+      <c r="K483" s="49"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
@@ -14140,7 +14173,7 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="48"/>
+      <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
@@ -14153,7 +14186,7 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40"/>
+      <c r="A496" s="48"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="39"/>
@@ -14309,7 +14342,7 @@
       <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="48"/>
+      <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
@@ -14322,7 +14355,7 @@
       <c r="K508" s="20"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40"/>
+      <c r="A509" s="48"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
@@ -14478,7 +14511,7 @@
       <c r="K520" s="20"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="48"/>
+      <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
@@ -14491,7 +14524,7 @@
       <c r="K521" s="20"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40"/>
+      <c r="A522" s="48"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
@@ -14647,7 +14680,7 @@
       <c r="K533" s="20"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="48"/>
+      <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
@@ -14660,7 +14693,7 @@
       <c r="K534" s="20"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+      <c r="A535" s="48"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
       <c r="D535" s="39"/>
@@ -14816,7 +14849,7 @@
       <c r="K546" s="20"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="48"/>
+      <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
@@ -14829,7 +14862,7 @@
       <c r="K547" s="20"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40"/>
+      <c r="A548" s="48"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -14985,7 +15018,7 @@
       <c r="K559" s="20"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="48"/>
+      <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -14998,7 +15031,7 @@
       <c r="K560" s="20"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
+      <c r="A561" s="48"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -15758,10 +15791,7 @@
       <c r="D619" s="39"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G619" s="13"/>
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
@@ -15896,20 +15926,36 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="41"/>
-      <c r="B628" s="15"/>
-      <c r="C628" s="42"/>
-      <c r="D628" s="43"/>
-      <c r="E628" s="51"/>
-      <c r="F628" s="15"/>
-      <c r="G628" s="42" t="str">
+      <c r="A628" s="40"/>
+      <c r="B628" s="20"/>
+      <c r="C628" s="13"/>
+      <c r="D628" s="39"/>
+      <c r="E628" s="9"/>
+      <c r="F628" s="20"/>
+      <c r="G628" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H628" s="43"/>
-      <c r="I628" s="51"/>
-      <c r="J628" s="12"/>
-      <c r="K628" s="15"/>
+      <c r="H628" s="39"/>
+      <c r="I628" s="9"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="20"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="41"/>
+      <c r="B629" s="15"/>
+      <c r="C629" s="42"/>
+      <c r="D629" s="43"/>
+      <c r="E629" s="51"/>
+      <c r="F629" s="15"/>
+      <c r="G629" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H629" s="43"/>
+      <c r="I629" s="51"/>
+      <c r="J629" s="12"/>
+      <c r="K629" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16026,11 +16072,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.4000000000000004E-2</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
